--- a/QA_Manual_Testing_Exercise_Joan_May.xlsx
+++ b/QA_Manual_Testing_Exercise_Joan_May.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51630240234e9023/APEX_QA_Testing_Exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1503" documentId="11_AD4D2F04E46CFB4ACB3E20FB7D50C0DE693EDF14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E45291F-1F55-46E1-A348-6E6DA8113E89}"/>
+  <xr:revisionPtr revIDLastSave="1504" documentId="11_AD4D2F04E46CFB4ACB3E20FB7D50C0DE693EDF14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19787FFE-5B2E-4026-93F2-D6B8C63F782B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34635" yWindow="2460" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>https://www.liverpool.com.mx/tienda/home</t>
-  </si>
-  <si>
-    <t>APEX QA CHALLENGE</t>
   </si>
   <si>
     <t>Browser</t>
@@ -1056,6 +1053,9 @@
       </rPr>
       <t>https://www.liverpool.com.mx/tienda/pantallas/catst14457077"</t>
     </r>
+  </si>
+  <si>
+    <t>Liverpool QA Automation Exercise</t>
   </si>
 </sst>
 </file>
@@ -1635,80 +1635,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1719,9 +1647,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1729,53 +1654,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1794,6 +1674,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1801,24 +1801,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1900,6 +1882,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1914,12 +1912,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1973,12 +1973,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0FD78369-1873-44CB-BB55-A9C25F922859}" name="Tabla13" displayName="Tabla13" ref="W83:Y93" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0FD78369-1873-44CB-BB55-A9C25F922859}" name="Tabla13" displayName="Tabla13" ref="W83:Y93" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="W83:Y93" xr:uid="{0FD78369-1873-44CB-BB55-A9C25F922859}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2849627F-23BE-4082-8431-D279301706BB}" name="Filter (Required*)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{982F71F5-1E39-4D16-AFBA-2E08C0F544C0}" name="Values" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5BEBD39B-A0AB-42E9-9475-22AD60EFDF1A}" name="Condition" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2849627F-23BE-4082-8431-D279301706BB}" name="Filter (Required*)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{982F71F5-1E39-4D16-AFBA-2E08C0F544C0}" name="Values" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5BEBD39B-A0AB-42E9-9475-22AD60EFDF1A}" name="Condition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2252,8 +2252,8 @@
   </sheetPr>
   <dimension ref="A2:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,15 +2286,15 @@
       <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>7</v>
+      <c r="D2" s="66" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="67">
         <v>45103</v>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2318,29 +2318,29 @@
       <c r="C6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C8" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="91">
+        <v>9</v>
+      </c>
+      <c r="D8" s="67">
         <v>45103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="87"/>
       <c r="C14" s="2"/>
@@ -2355,1160 +2355,1160 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="89"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="89"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="H19" s="65"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="A24" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="C25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="F25" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="96" t="s">
+      <c r="G25" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="96" t="s">
+      <c r="H25" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="96" t="s">
+      <c r="I25" s="71" t="s">
         <v>29</v>
-      </c>
-      <c r="I25" s="96" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="I26" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="I27" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="I28" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="I29" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="H30" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="I30" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="H31" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
+      <c r="A33" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="102"/>
+      <c r="H35" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="99"/>
+      <c r="B36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="95"/>
+      <c r="H36" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="99"/>
+      <c r="B37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="97"/>
+      <c r="E37" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="35" t="s">
+      <c r="F37" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="43"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="98"/>
-      <c r="H35" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="78"/>
-      <c r="H36" s="41" t="s">
+      <c r="G37" s="103"/>
+      <c r="H37" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="I36" s="78" t="s">
+      <c r="I37" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
-      <c r="B37" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="99"/>
-      <c r="H37" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
       <c r="L37" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="30"/>
-      <c r="D38" s="75"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="78"/>
+        <v>82</v>
+      </c>
+      <c r="F38" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="95"/>
       <c r="H38" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
+        <v>98</v>
+      </c>
+      <c r="I38" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
       <c r="L38" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="30"/>
-      <c r="D39" s="75"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="100"/>
+        <v>82</v>
+      </c>
+      <c r="F39" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="96"/>
       <c r="H39" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
+        <v>99</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="30"/>
-      <c r="D40" s="75"/>
+      <c r="D40" s="97"/>
       <c r="E40" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="78"/>
+        <v>74</v>
+      </c>
+      <c r="F40" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="95"/>
       <c r="H40" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
+        <v>100</v>
+      </c>
+      <c r="I40" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="30"/>
-      <c r="D41" s="75"/>
+      <c r="D41" s="97"/>
       <c r="E41" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="101"/>
+        <v>82</v>
+      </c>
+      <c r="F41" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="90"/>
       <c r="H41" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I41" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="85"/>
       <c r="K41" s="85"/>
       <c r="L41" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="87"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="89" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="88"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="89"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="88"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="89"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="102"/>
+      <c r="H55" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="M55" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O55" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="99"/>
+      <c r="B56" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-    </row>
-    <row r="54" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="70" t="s">
+      <c r="D56" s="97"/>
+      <c r="E56" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="95"/>
+      <c r="H56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M56" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O56" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="99"/>
+      <c r="B57" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="97"/>
+      <c r="E57" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="98"/>
-      <c r="H55" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="M55" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N55" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="O55" s="96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="102"/>
-      <c r="B56" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="75"/>
-      <c r="E56" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="78"/>
-      <c r="H56" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I56" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="3" t="s">
+      <c r="F57" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="107"/>
+      <c r="H57" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="M56" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R56" s="1" t="s">
+      <c r="I57" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O57" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q57" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="102"/>
-      <c r="B57" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="105"/>
-      <c r="H57" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N57" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O57" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="49" t="s">
         <v>144</v>
-      </c>
-      <c r="R57" s="49" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
       <c r="B58" s="30"/>
-      <c r="D58" s="75"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="F58" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="95"/>
       <c r="H58" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
+        <v>132</v>
+      </c>
+      <c r="I58" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
       <c r="L58" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M58" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O58" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R58" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" s="30"/>
-      <c r="D59" s="75"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="100"/>
+        <v>111</v>
+      </c>
+      <c r="F59" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="96"/>
       <c r="H59" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
+        <v>136</v>
+      </c>
+      <c r="I59" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
       <c r="L59" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M59" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N59" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O59" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
       <c r="B60" s="30"/>
-      <c r="D60" s="75"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="G60" s="106"/>
+        <v>115</v>
+      </c>
+      <c r="F60" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="109"/>
       <c r="H60" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
+        <v>136</v>
+      </c>
+      <c r="I60" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
       <c r="L60" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M60" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O60" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="30"/>
-      <c r="D61" s="75"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="111"/>
+      <c r="H61" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="112"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M61" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="N61" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E62" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="G61" s="107"/>
-      <c r="H61" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="M61" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="N61" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="O61" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E62" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="81" t="s">
+      <c r="G62" s="91"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E63" s="91"/>
+      <c r="F63" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="G62" s="81"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E63" s="81"/>
-      <c r="F63" s="82" t="s">
+      <c r="G63" s="92"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E64" s="91"/>
+      <c r="F64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G63" s="82"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E64" s="81"/>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="3" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="91"/>
+      <c r="F65" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E65" s="81"/>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="91"/>
+      <c r="F66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E66" s="81"/>
-      <c r="F66" s="3" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E67" s="91"/>
+      <c r="F67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E67" s="81"/>
-      <c r="F67" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E68" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F68" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" s="74"/>
+        <v>115</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="93"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="65"/>
+        <v>82</v>
+      </c>
+      <c r="F69" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="94"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E70" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" s="80"/>
+        <v>111</v>
+      </c>
+      <c r="F70" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" s="86"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="87"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="108" t="s">
+      <c r="A74" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="89" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="108"/>
+      <c r="A75" s="88"/>
       <c r="B75" s="89"/>
     </row>
     <row r="76" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="108"/>
+      <c r="A76" s="88"/>
       <c r="B76" s="89"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A81" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="104"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="104"/>
-      <c r="O81" s="104"/>
-      <c r="P81" s="104"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
-      <c r="U81" s="104"/>
+      <c r="A81" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="82"/>
+      <c r="O81" s="82"/>
+      <c r="P81" s="82"/>
+      <c r="Q81" s="82"/>
+      <c r="R81" s="82"/>
+      <c r="S81" s="82"/>
+      <c r="T81" s="82"/>
+      <c r="U81" s="82"/>
     </row>
     <row r="82" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
+      <c r="A82" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="115"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="F82" s="71"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="Q82" s="83"/>
-      <c r="R82" s="83"/>
-      <c r="S82" s="83"/>
+        <v>84</v>
+      </c>
+      <c r="E82" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="116"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
       <c r="T82" s="43"/>
       <c r="U82" s="43"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="E83" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="102"/>
+      <c r="H83" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I83" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="M83" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="N83" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="O83" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="P83" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q83" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="R83" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="S83" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="T83" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="U83" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="W83" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="X83" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y83" s="75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="99"/>
+      <c r="B84" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="75" t="s">
+      <c r="C84" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="D84" s="97"/>
+      <c r="E84" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="98" t="s">
+      <c r="F84" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="98"/>
-      <c r="H83" s="59" t="s">
+      <c r="G84" s="95"/>
+      <c r="H84" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="I83" s="73" t="s">
+      <c r="I84" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="46" t="s">
+      <c r="J84" s="94"/>
+      <c r="K84" s="94"/>
+      <c r="L84" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M83" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="N83" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="O83" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="P83" s="46" t="s">
+      <c r="M84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q84" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S84" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="Q83" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="R83" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="S83" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="T83" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="U83" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="W83" s="113" t="s">
+      <c r="T84" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="U84" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="W84" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="X83" s="114" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y83" s="115" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="102"/>
-      <c r="B84" s="33" t="s">
+      <c r="X84" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y84" s="64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="99"/>
+      <c r="B85" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="75"/>
-      <c r="E84" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" s="78"/>
-      <c r="H84" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="I84" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="P84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q84" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="S84" s="32" t="s">
+      <c r="C85" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="97"/>
+      <c r="E85" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="107"/>
+      <c r="H85" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="T84" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="U84" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="W84" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="X84" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y84" s="64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="102"/>
-      <c r="B85" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F85" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" s="105"/>
-      <c r="H85" s="31" t="s">
+      <c r="I85" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="I85" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="J85" s="74"/>
-      <c r="K85" s="74"/>
-      <c r="L85" s="31" t="s">
+      <c r="M85" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="M85" s="31" t="s">
+      <c r="N85" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="N85" s="31" t="s">
+      <c r="O85" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="O85" s="31" t="s">
+      <c r="P85" s="31" t="s">
         <v>180</v>
-      </c>
-      <c r="P85" s="31" t="s">
-        <v>181</v>
       </c>
       <c r="Q85" s="31">
         <v>9381839098</v>
@@ -3517,234 +3517,234 @@
         <v>231452</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U85" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="W85" s="116" t="s">
-        <v>211</v>
+        <v>45</v>
+      </c>
+      <c r="W85" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="X85" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y85" s="117" t="s">
-        <v>234</v>
+        <v>220</v>
+      </c>
+      <c r="Y85" s="77" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="34"/>
       <c r="B86" s="30"/>
-      <c r="D86" s="75"/>
+      <c r="D86" s="97"/>
       <c r="E86" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="F86" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="95"/>
       <c r="H86" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="I86" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
+        <v>136</v>
+      </c>
+      <c r="I86" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="J86" s="94"/>
+      <c r="K86" s="94"/>
       <c r="L86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S86" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U86" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="W86" s="116" t="s">
-        <v>212</v>
+        <v>45</v>
+      </c>
+      <c r="W86" s="76" t="s">
+        <v>211</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y86" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="34"/>
       <c r="B87" s="30"/>
-      <c r="D87" s="75"/>
+      <c r="D87" s="97"/>
       <c r="E87" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87" s="109" t="s">
-        <v>158</v>
-      </c>
-      <c r="G87" s="109"/>
+        <v>82</v>
+      </c>
+      <c r="F87" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="120"/>
       <c r="H87" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="I87" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="J87" s="108"/>
+      <c r="K87" s="108"/>
+      <c r="L87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="M87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="N87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="O87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="P87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="R87" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="S87" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="I87" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="M87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="N87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="O87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="P87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="R87" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="S87" s="52" t="s">
-        <v>186</v>
-      </c>
       <c r="T87" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U87" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="W87" s="116" t="s">
-        <v>213</v>
+        <v>45</v>
+      </c>
+      <c r="W87" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="X87" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y87" s="117" t="s">
-        <v>222</v>
+        <v>227</v>
+      </c>
+      <c r="Y87" s="77" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34"/>
       <c r="B88" s="30"/>
-      <c r="D88" s="75"/>
+      <c r="D88" s="97"/>
       <c r="E88" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F88" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="G88" s="77"/>
+        <v>111</v>
+      </c>
+      <c r="F88" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="110"/>
       <c r="H88" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I88" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
+        <v>175</v>
+      </c>
+      <c r="I88" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
       <c r="L88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S88" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="T88" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="T88" s="50" t="s">
-        <v>189</v>
-      </c>
       <c r="U88" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="W88" s="116" t="s">
-        <v>214</v>
+        <v>45</v>
+      </c>
+      <c r="W88" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y88" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="34"/>
       <c r="B89" s="30"/>
-      <c r="D89" s="75"/>
+      <c r="D89" s="97"/>
       <c r="E89" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" s="110"/>
+        <v>82</v>
+      </c>
+      <c r="F89" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="G89" s="119"/>
       <c r="H89" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="I89" s="67" t="s">
+      <c r="J89" s="112"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="56" t="s">
+      <c r="M89" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="N89" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="O89" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="M89" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="N89" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="O89" s="56" t="s">
-        <v>193</v>
-      </c>
       <c r="P89" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q89" s="56">
         <v>9381839098</v>
@@ -3753,55 +3753,55 @@
         <v>154215</v>
       </c>
       <c r="S89" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="T89" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="T89" s="32" t="s">
-        <v>202</v>
-      </c>
       <c r="U89" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W89" s="116" t="s">
-        <v>215</v>
+        <v>46</v>
+      </c>
+      <c r="W89" s="76" t="s">
+        <v>214</v>
       </c>
       <c r="X89" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y89" s="117" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="Y89" s="77" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D90" s="75"/>
+      <c r="D90" s="97"/>
       <c r="E90" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F90" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="77"/>
+        <v>82</v>
+      </c>
+      <c r="F90" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="G90" s="110"/>
       <c r="H90" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I90" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O90" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I90" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="P90" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q90" s="58">
         <v>9912391212312</v>
@@ -3810,183 +3810,211 @@
         <v>134512</v>
       </c>
       <c r="S90" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="T90" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="T90" s="32" t="s">
-        <v>208</v>
-      </c>
       <c r="U90" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W90" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="W90" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y90" s="64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D91" s="97"/>
+      <c r="E91" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="G91" s="113"/>
+      <c r="W91" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="X90" s="3" t="s">
+      <c r="X91" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="Y90" s="64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D91" s="75"/>
-      <c r="E91" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F91" s="111" t="s">
+      <c r="Y91" s="77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="97"/>
+      <c r="E92" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="111"/>
-      <c r="W91" s="116" t="s">
+      <c r="G92" s="110"/>
+      <c r="W92" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="X91" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y91" s="117" t="s">
+      <c r="X92" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y92" s="64" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="75"/>
-      <c r="E92" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F92" s="77" t="s">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D93" s="97"/>
+      <c r="E93" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G92" s="77"/>
-      <c r="W92" s="116" t="s">
+      <c r="G93" s="113"/>
+      <c r="W93" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="X92" s="3" t="s">
+      <c r="X93" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="Y92" s="64" t="s">
+      <c r="Y93" s="80" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D93" s="75"/>
-      <c r="E93" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" s="111" t="s">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D94" s="97"/>
+      <c r="E94" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="G93" s="111"/>
-      <c r="W93" s="118" t="s">
-        <v>219</v>
-      </c>
-      <c r="X93" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y93" s="120" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D94" s="75"/>
-      <c r="E94" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="G94" s="77"/>
+      <c r="G94" s="110"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D95" s="75"/>
+      <c r="D95" s="97"/>
       <c r="E95" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F95" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="G95" s="111"/>
+        <v>82</v>
+      </c>
+      <c r="F95" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95" s="113"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D96" s="75"/>
+      <c r="D96" s="97"/>
       <c r="E96" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F96" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="110"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D97" s="97"/>
+      <c r="E97" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="G96" s="77"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="75"/>
-      <c r="E97" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F97" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="G97" s="111"/>
+      <c r="G97" s="113"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="75"/>
+      <c r="D98" s="97"/>
       <c r="E98" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F98" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="G98" s="65"/>
+        <v>82</v>
+      </c>
+      <c r="F98" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" s="94"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="75"/>
+      <c r="D99" s="97"/>
       <c r="E99" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F99" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="G99" s="66"/>
+        <v>82</v>
+      </c>
+      <c r="F99" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G99" s="118"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="75"/>
+      <c r="D100" s="97"/>
       <c r="E100" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F100" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="G100" s="110"/>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D101" s="97"/>
+      <c r="E101" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="G100" s="77"/>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="75"/>
-      <c r="E101" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F101" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="G101" s="101"/>
+      <c r="G101" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A81:U81"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H82:S82"/>
+    <mergeCell ref="D83:D101"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:K61"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A24:I24"/>
@@ -4002,60 +4030,32 @@
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="H82:S82"/>
-    <mergeCell ref="D83:D101"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="A81:U81"/>
-    <mergeCell ref="I88:K88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:K86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:K87"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
